--- a/DecayData.xlsx
+++ b/DecayData.xlsx
@@ -65,7 +65,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40506.6931328767</v>
+        <v>40513.6909870559</v>
       </c>
       <c r="B2" s="1">
         <v>0.000000</v>
@@ -73,127 +73,127 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40506.6931444508</v>
+        <v>40513.6909986299</v>
       </c>
       <c r="B3" s="1">
-        <v>36.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40506.6931560249</v>
+        <v>40513.6910102040</v>
       </c>
       <c r="B4" s="1">
-        <v>36.000000</v>
+        <v>29.000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40506.6931675990</v>
+        <v>40513.6910217781</v>
       </c>
       <c r="B5" s="1">
-        <v>35.000000</v>
+        <v>26.000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40506.6931791730</v>
+        <v>40513.6910333522</v>
       </c>
       <c r="B6" s="1">
-        <v>43.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40506.6931907471</v>
+        <v>40513.6910449262</v>
       </c>
       <c r="B7" s="1">
-        <v>37.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40506.6932023212</v>
+        <v>40513.6910565003</v>
       </c>
       <c r="B8" s="1">
-        <v>45.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40506.6932138952</v>
+        <v>40513.6910680744</v>
       </c>
       <c r="B9" s="1">
-        <v>49.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40506.6932254693</v>
+        <v>40513.6910796485</v>
       </c>
       <c r="B10" s="1">
-        <v>51.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40506.6932370434</v>
+        <v>40513.6910912225</v>
       </c>
       <c r="B11" s="1">
-        <v>32.000000</v>
+        <v>34.000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40506.6932486175</v>
+        <v>40513.6911027966</v>
       </c>
       <c r="B12" s="1">
-        <v>49.000000</v>
+        <v>31.000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40506.6932601915</v>
+        <v>40513.6911143707</v>
       </c>
       <c r="B13" s="1">
-        <v>39.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40506.6932717656</v>
+        <v>40513.6911259448</v>
       </c>
       <c r="B14" s="1">
-        <v>47.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40506.6932833397</v>
+        <v>40513.6911375188</v>
       </c>
       <c r="B15" s="1">
-        <v>41.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40506.6932949138</v>
+        <v>40513.6911490929</v>
       </c>
       <c r="B16" s="1">
-        <v>48.000000</v>
+        <v>29.000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40506.6933064878</v>
+        <v>40513.6911606670</v>
       </c>
       <c r="B17" s="1">
-        <v>37.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40506.6933180619</v>
+        <v>40513.6911722411</v>
       </c>
       <c r="B18" s="1">
         <v>37.000000</v>
@@ -201,87 +201,87 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40506.6933296360</v>
+        <v>40513.6911838151</v>
       </c>
       <c r="B19" s="1">
-        <v>43.000000</v>
+        <v>42.000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40506.6933412101</v>
+        <v>40513.6911953892</v>
       </c>
       <c r="B20" s="1">
-        <v>44.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40506.6933527841</v>
+        <v>40513.6912069633</v>
       </c>
       <c r="B21" s="1">
-        <v>34.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40506.6933643582</v>
+        <v>40513.6912185374</v>
       </c>
       <c r="B22" s="1">
-        <v>33.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40506.6933759323</v>
+        <v>40513.6912301114</v>
       </c>
       <c r="B23" s="1">
-        <v>45.000000</v>
+        <v>29.000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40506.6933875064</v>
+        <v>40513.6912416855</v>
       </c>
       <c r="B24" s="1">
-        <v>37.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40506.6933990804</v>
+        <v>40513.6912532596</v>
       </c>
       <c r="B25" s="1">
-        <v>38.000000</v>
+        <v>45.000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40506.6934106545</v>
+        <v>40513.6912648337</v>
       </c>
       <c r="B26" s="1">
-        <v>33.000000</v>
+        <v>46.000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40506.6934222286</v>
+        <v>40513.6912764077</v>
       </c>
       <c r="B27" s="1">
-        <v>46.000000</v>
+        <v>50.000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40506.6934338027</v>
+        <v>40513.6912879818</v>
       </c>
       <c r="B28" s="1">
-        <v>38.000000</v>
+        <v>48.000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40506.6934453767</v>
+        <v>40513.6912995559</v>
       </c>
       <c r="B29" s="1">
         <v>45.000000</v>
@@ -289,7 +289,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>40506.6934569508</v>
+        <v>40513.6913111299</v>
       </c>
       <c r="B30" s="1">
         <v>36.000000</v>
@@ -297,10 +297,1690 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>40506.6934685249</v>
+        <v>40513.6913227040</v>
       </c>
       <c r="B31" s="1">
+        <v>42.000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>40513.6913342781</v>
+      </c>
+      <c r="B32" s="1">
+        <v>47.000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>40513.6913458522</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44.000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>40513.6913574262</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42.000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>40513.6913690003</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43.000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>40513.6913805744</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42.000000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>40513.6913921485</v>
+      </c>
+      <c r="B37" s="1">
+        <v>39.000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>40513.6914037225</v>
+      </c>
+      <c r="B38" s="1">
+        <v>56.000000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>40513.6914152966</v>
+      </c>
+      <c r="B39" s="1">
+        <v>60.000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>40513.6914268707</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44.000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>40513.6914384448</v>
+      </c>
+      <c r="B41" s="1">
+        <v>55.000000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>40513.6914500188</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39.000000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>40513.6914615929</v>
+      </c>
+      <c r="B43" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>40513.6914731670</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40.000000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>40513.6914847411</v>
+      </c>
+      <c r="B45" s="1">
         <v>34.000000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>40513.6914963151</v>
+      </c>
+      <c r="B46" s="1">
+        <v>41.000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>40513.6915078892</v>
+      </c>
+      <c r="B47" s="1">
+        <v>38.000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>40513.6915194633</v>
+      </c>
+      <c r="B48" s="1">
+        <v>49.000000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>40513.6915310374</v>
+      </c>
+      <c r="B49" s="1">
+        <v>47.000000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>40513.6915426114</v>
+      </c>
+      <c r="B50" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>40513.6915541855</v>
+      </c>
+      <c r="B51" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>40513.6915657596</v>
+      </c>
+      <c r="B52" s="1">
+        <v>41.000000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>40513.6915773337</v>
+      </c>
+      <c r="B53" s="1">
+        <v>34.000000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>40513.6915889077</v>
+      </c>
+      <c r="B54" s="1">
+        <v>41.000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>40513.6916004818</v>
+      </c>
+      <c r="B55" s="1">
+        <v>48.000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>40513.6916120559</v>
+      </c>
+      <c r="B56" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>40513.6916236299</v>
+      </c>
+      <c r="B57" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>40513.6916352040</v>
+      </c>
+      <c r="B58" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>40513.6916467781</v>
+      </c>
+      <c r="B59" s="1">
+        <v>38.000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>40513.6916583522</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43.000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>40513.6916699262</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45.000000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>40513.6916815003</v>
+      </c>
+      <c r="B62" s="1">
+        <v>46.000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>40513.6916930744</v>
+      </c>
+      <c r="B63" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>40513.6917046485</v>
+      </c>
+      <c r="B64" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>40513.6917162225</v>
+      </c>
+      <c r="B65" s="1">
+        <v>39.000000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>40513.6917277966</v>
+      </c>
+      <c r="B66" s="1">
+        <v>40.000000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>40513.6917393707</v>
+      </c>
+      <c r="B67" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>40513.6917509448</v>
+      </c>
+      <c r="B68" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>40513.6917625188</v>
+      </c>
+      <c r="B69" s="1">
+        <v>40.000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>40513.6917740929</v>
+      </c>
+      <c r="B70" s="1">
+        <v>36.000000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>40513.6917856670</v>
+      </c>
+      <c r="B71" s="1">
+        <v>37.000000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>40513.6917972411</v>
+      </c>
+      <c r="B72" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>40513.6918088151</v>
+      </c>
+      <c r="B73" s="1">
+        <v>38.000000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>40513.6918203892</v>
+      </c>
+      <c r="B74" s="1">
+        <v>39.000000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>40513.6918319633</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40.000000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>40513.6918435374</v>
+      </c>
+      <c r="B76" s="1">
+        <v>37.000000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>40513.6918551114</v>
+      </c>
+      <c r="B77" s="1">
+        <v>48.000000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>40513.6918666855</v>
+      </c>
+      <c r="B78" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>40513.6918782596</v>
+      </c>
+      <c r="B79" s="1">
+        <v>34.000000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>40513.6918898336</v>
+      </c>
+      <c r="B80" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>40513.6919014077</v>
+      </c>
+      <c r="B81" s="1">
+        <v>35.000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>40513.6919129818</v>
+      </c>
+      <c r="B82" s="1">
+        <v>35.000000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>40513.6919245559</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42.000000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>40513.6919361299</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>40513.6919477040</v>
+      </c>
+      <c r="B85" s="1">
+        <v>37.000000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>40513.6919592781</v>
+      </c>
+      <c r="B86" s="1">
+        <v>38.000000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>40513.6919708522</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>40513.6919824262</v>
+      </c>
+      <c r="B88" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>40513.6919940003</v>
+      </c>
+      <c r="B89" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>40513.6920055744</v>
+      </c>
+      <c r="B90" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>40513.6920171485</v>
+      </c>
+      <c r="B91" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>40513.6920287225</v>
+      </c>
+      <c r="B92" s="1">
+        <v>40.000000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>40513.6920402966</v>
+      </c>
+      <c r="B93" s="1">
+        <v>35.000000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>40513.6920518707</v>
+      </c>
+      <c r="B94" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>40513.6920634448</v>
+      </c>
+      <c r="B95" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>40513.6920750188</v>
+      </c>
+      <c r="B96" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>40513.6920865929</v>
+      </c>
+      <c r="B97" s="1">
+        <v>34.000000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>40513.6920981670</v>
+      </c>
+      <c r="B98" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>40513.6921097411</v>
+      </c>
+      <c r="B99" s="1">
+        <v>36.000000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>40513.6921213151</v>
+      </c>
+      <c r="B100" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>40513.6921328892</v>
+      </c>
+      <c r="B101" s="1">
+        <v>38.000000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>40513.6921444633</v>
+      </c>
+      <c r="B102" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>40513.6921560374</v>
+      </c>
+      <c r="B103" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>40513.6921676114</v>
+      </c>
+      <c r="B104" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>40513.6921791855</v>
+      </c>
+      <c r="B105" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>40513.6921907596</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43.000000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>40513.6922023336</v>
+      </c>
+      <c r="B107" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>40513.6922139077</v>
+      </c>
+      <c r="B108" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>40513.6922254818</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44.000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>40513.6922370559</v>
+      </c>
+      <c r="B110" s="1">
+        <v>38.000000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>40513.6922486299</v>
+      </c>
+      <c r="B111" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>40513.6922602040</v>
+      </c>
+      <c r="B112" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>40513.6922717781</v>
+      </c>
+      <c r="B113" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>40513.6922833522</v>
+      </c>
+      <c r="B114" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>40513.6922949262</v>
+      </c>
+      <c r="B115" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>40513.6923065003</v>
+      </c>
+      <c r="B116" s="1">
+        <v>35.000000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>40513.6923180744</v>
+      </c>
+      <c r="B117" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>40513.6923296485</v>
+      </c>
+      <c r="B118" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>40513.6923412225</v>
+      </c>
+      <c r="B119" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>40513.6923527966</v>
+      </c>
+      <c r="B120" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>40513.6923643707</v>
+      </c>
+      <c r="B121" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>40513.6923759448</v>
+      </c>
+      <c r="B122" s="1">
+        <v>35.000000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>40513.6923875188</v>
+      </c>
+      <c r="B123" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>40513.6923990929</v>
+      </c>
+      <c r="B124" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>40513.6924106670</v>
+      </c>
+      <c r="B125" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>40513.6924222411</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>40513.6924338151</v>
+      </c>
+      <c r="B127" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>40513.6924453892</v>
+      </c>
+      <c r="B128" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>40513.6924569633</v>
+      </c>
+      <c r="B129" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>40513.6924685374</v>
+      </c>
+      <c r="B130" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>40513.6924801114</v>
+      </c>
+      <c r="B131" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>40513.6924916855</v>
+      </c>
+      <c r="B132" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>40513.6925032596</v>
+      </c>
+      <c r="B133" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>40513.6925148336</v>
+      </c>
+      <c r="B134" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>40513.6925264077</v>
+      </c>
+      <c r="B135" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>40513.6925379818</v>
+      </c>
+      <c r="B136" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>40513.6925495559</v>
+      </c>
+      <c r="B137" s="1">
+        <v>34.000000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>40513.6925611299</v>
+      </c>
+      <c r="B138" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>40513.6925727040</v>
+      </c>
+      <c r="B139" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>40513.6925842781</v>
+      </c>
+      <c r="B140" s="1">
+        <v>17.000000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>40513.6925958522</v>
+      </c>
+      <c r="B141" s="1">
+        <v>28.000000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>40513.6926074262</v>
+      </c>
+      <c r="B142" s="1">
+        <v>31.000000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>40513.6926190003</v>
+      </c>
+      <c r="B143" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>40513.6926305744</v>
+      </c>
+      <c r="B144" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>40513.6926421485</v>
+      </c>
+      <c r="B145" s="1">
+        <v>31.000000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>40513.6926537225</v>
+      </c>
+      <c r="B146" s="1">
+        <v>31.000000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>40513.6926652966</v>
+      </c>
+      <c r="B147" s="1">
+        <v>33.000000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>40513.6926768707</v>
+      </c>
+      <c r="B148" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>40513.6926884448</v>
+      </c>
+      <c r="B149" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>40513.6927000188</v>
+      </c>
+      <c r="B150" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>40513.6927115929</v>
+      </c>
+      <c r="B151" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>40513.6927231670</v>
+      </c>
+      <c r="B152" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>40513.6927347411</v>
+      </c>
+      <c r="B153" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>40513.6927463151</v>
+      </c>
+      <c r="B154" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>40513.6927578892</v>
+      </c>
+      <c r="B155" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>40513.6927694633</v>
+      </c>
+      <c r="B156" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>40513.6927810374</v>
+      </c>
+      <c r="B157" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>40513.6927926114</v>
+      </c>
+      <c r="B158" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>40513.6928041855</v>
+      </c>
+      <c r="B159" s="1">
+        <v>13.000000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>40513.6928157596</v>
+      </c>
+      <c r="B160" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>40513.6928273336</v>
+      </c>
+      <c r="B161" s="1">
+        <v>31.000000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>40513.6928389077</v>
+      </c>
+      <c r="B162" s="1">
+        <v>31.000000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>40513.6928504818</v>
+      </c>
+      <c r="B163" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>40513.6928620559</v>
+      </c>
+      <c r="B164" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>40513.6928736299</v>
+      </c>
+      <c r="B165" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>40513.6928852040</v>
+      </c>
+      <c r="B166" s="1">
+        <v>11.000000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>40513.6928967781</v>
+      </c>
+      <c r="B167" s="1">
+        <v>30.000000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>40513.6929083522</v>
+      </c>
+      <c r="B168" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>40513.6929199262</v>
+      </c>
+      <c r="B169" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>40513.6929315003</v>
+      </c>
+      <c r="B170" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>40513.6929430744</v>
+      </c>
+      <c r="B171" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>40513.6929546485</v>
+      </c>
+      <c r="B172" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>40513.6929662225</v>
+      </c>
+      <c r="B173" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>40513.6929777966</v>
+      </c>
+      <c r="B174" s="1">
+        <v>17.000000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>40513.6929893707</v>
+      </c>
+      <c r="B175" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>40513.6930009448</v>
+      </c>
+      <c r="B176" s="1">
+        <v>19.000000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>40513.6930125188</v>
+      </c>
+      <c r="B177" s="1">
+        <v>19.000000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>40513.6930240929</v>
+      </c>
+      <c r="B178" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>40513.6930356670</v>
+      </c>
+      <c r="B179" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>40513.6930472411</v>
+      </c>
+      <c r="B180" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>40513.6930588151</v>
+      </c>
+      <c r="B181" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>40513.6930703892</v>
+      </c>
+      <c r="B182" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>40513.6930819633</v>
+      </c>
+      <c r="B183" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>40513.6930935374</v>
+      </c>
+      <c r="B184" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>40513.6931051114</v>
+      </c>
+      <c r="B185" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>40513.6931166855</v>
+      </c>
+      <c r="B186" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>40513.6931282596</v>
+      </c>
+      <c r="B187" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>40513.6931398336</v>
+      </c>
+      <c r="B188" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>40513.6931514077</v>
+      </c>
+      <c r="B189" s="1">
+        <v>14.000000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>40513.6931629818</v>
+      </c>
+      <c r="B190" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>40513.6931745559</v>
+      </c>
+      <c r="B191" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>40513.6931861299</v>
+      </c>
+      <c r="B192" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>40513.6931977040</v>
+      </c>
+      <c r="B193" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>40513.6932092781</v>
+      </c>
+      <c r="B194" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>40513.6932208522</v>
+      </c>
+      <c r="B195" s="1">
+        <v>13.000000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>40513.6932324262</v>
+      </c>
+      <c r="B196" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>40513.6932440003</v>
+      </c>
+      <c r="B197" s="1">
+        <v>27.000000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>40513.6932555744</v>
+      </c>
+      <c r="B198" s="1">
+        <v>29.000000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>40513.6932671485</v>
+      </c>
+      <c r="B199" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>40513.6932787225</v>
+      </c>
+      <c r="B200" s="1">
+        <v>15.000000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>40513.6932902966</v>
+      </c>
+      <c r="B201" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>40513.6933018707</v>
+      </c>
+      <c r="B202" s="1">
+        <v>12.000000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>40513.6933134448</v>
+      </c>
+      <c r="B203" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>40513.6933250188</v>
+      </c>
+      <c r="B204" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>40513.6933365929</v>
+      </c>
+      <c r="B205" s="1">
+        <v>25.000000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>40513.6933481670</v>
+      </c>
+      <c r="B206" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>40513.6933597411</v>
+      </c>
+      <c r="B207" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>40513.6933713151</v>
+      </c>
+      <c r="B208" s="1">
+        <v>14.000000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>40513.6933828892</v>
+      </c>
+      <c r="B209" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>40513.6933944633</v>
+      </c>
+      <c r="B210" s="1">
+        <v>32.000000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>40513.6934060374</v>
+      </c>
+      <c r="B211" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>40513.6934176114</v>
+      </c>
+      <c r="B212" s="1">
+        <v>26.000000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>40513.6934291855</v>
+      </c>
+      <c r="B213" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>40513.6934407596</v>
+      </c>
+      <c r="B214" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>40513.6934523336</v>
+      </c>
+      <c r="B215" s="1">
+        <v>19.000000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>40513.6934639077</v>
+      </c>
+      <c r="B216" s="1">
+        <v>15.000000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>40513.6934754818</v>
+      </c>
+      <c r="B217" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>40513.6934870559</v>
+      </c>
+      <c r="B218" s="1">
+        <v>15.000000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>40513.6934986299</v>
+      </c>
+      <c r="B219" s="1">
+        <v>17.000000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>40513.6935102040</v>
+      </c>
+      <c r="B220" s="1">
+        <v>15.000000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>40513.6935217781</v>
+      </c>
+      <c r="B221" s="1">
+        <v>20.000000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>40513.6935333522</v>
+      </c>
+      <c r="B222" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>40513.6935449262</v>
+      </c>
+      <c r="B223" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>40513.6935565003</v>
+      </c>
+      <c r="B224" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>40513.6935680744</v>
+      </c>
+      <c r="B225" s="1">
+        <v>24.000000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>40513.6935796485</v>
+      </c>
+      <c r="B226" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>40513.6935912225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>31.000000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>40513.6936027966</v>
+      </c>
+      <c r="B228" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>40513.6936143707</v>
+      </c>
+      <c r="B229" s="1">
+        <v>17.000000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>40513.6936259448</v>
+      </c>
+      <c r="B230" s="1">
+        <v>22.000000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>40513.6936375188</v>
+      </c>
+      <c r="B231" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>40513.6936490929</v>
+      </c>
+      <c r="B232" s="1">
+        <v>12.000000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>40513.6936606670</v>
+      </c>
+      <c r="B233" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>40513.6936722411</v>
+      </c>
+      <c r="B234" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>40513.6936838151</v>
+      </c>
+      <c r="B235" s="1">
+        <v>16.000000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>40513.6936953892</v>
+      </c>
+      <c r="B236" s="1">
+        <v>23.000000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>40513.6937069633</v>
+      </c>
+      <c r="B237" s="1">
+        <v>15.000000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>40513.6937185374</v>
+      </c>
+      <c r="B238" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>40513.6937301114</v>
+      </c>
+      <c r="B239" s="1">
+        <v>18.000000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>40513.6937416855</v>
+      </c>
+      <c r="B240" s="1">
+        <v>21.000000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>40513.6937532596</v>
+      </c>
+      <c r="B241" s="1">
+        <v>11.000000</v>
       </c>
     </row>
   </sheetData>

--- a/DecayData.xlsx
+++ b/DecayData.xlsx
@@ -65,7 +65,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40513.6909870559</v>
+        <v>40513.6952333138</v>
       </c>
       <c r="B2" s="1">
         <v>0.000000</v>
@@ -73,479 +73,479 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40513.6909986299</v>
+        <v>40513.6952448879</v>
       </c>
       <c r="B3" s="1">
-        <v>23.000000</v>
+        <v>46.000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40513.6910102040</v>
+        <v>40513.6952564619</v>
       </c>
       <c r="B4" s="1">
-        <v>29.000000</v>
+        <v>63.000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40513.6910217781</v>
+        <v>40513.6952680360</v>
       </c>
       <c r="B5" s="1">
-        <v>26.000000</v>
+        <v>59.000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40513.6910333522</v>
+        <v>40513.6952796101</v>
       </c>
       <c r="B6" s="1">
-        <v>35.000000</v>
+        <v>65.000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40513.6910449262</v>
+        <v>40513.6952911842</v>
       </c>
       <c r="B7" s="1">
-        <v>27.000000</v>
+        <v>55.000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40513.6910565003</v>
+        <v>40513.6953027582</v>
       </c>
       <c r="B8" s="1">
-        <v>24.000000</v>
+        <v>57.000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40513.6910680744</v>
+        <v>40513.6953143323</v>
       </c>
       <c r="B9" s="1">
-        <v>24.000000</v>
+        <v>51.000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40513.6910796485</v>
+        <v>40513.6953259064</v>
       </c>
       <c r="B10" s="1">
-        <v>24.000000</v>
+        <v>47.000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40513.6910912225</v>
+        <v>40513.6953374805</v>
       </c>
       <c r="B11" s="1">
-        <v>34.000000</v>
+        <v>65.000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40513.6911027966</v>
+        <v>40513.6953490545</v>
       </c>
       <c r="B12" s="1">
-        <v>31.000000</v>
+        <v>55.000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40513.6911143707</v>
+        <v>40513.6953606286</v>
       </c>
       <c r="B13" s="1">
-        <v>35.000000</v>
+        <v>63.000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40513.6911259448</v>
+        <v>40513.6953722027</v>
       </c>
       <c r="B14" s="1">
-        <v>38.000000</v>
+        <v>61.000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40513.6911375188</v>
+        <v>40513.6953837768</v>
       </c>
       <c r="B15" s="1">
-        <v>39.000000</v>
+        <v>65.000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40513.6911490929</v>
+        <v>40513.6953953508</v>
       </c>
       <c r="B16" s="1">
-        <v>29.000000</v>
+        <v>54.000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40513.6911606670</v>
+        <v>40513.6954069249</v>
       </c>
       <c r="B17" s="1">
-        <v>36.000000</v>
+        <v>62.000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40513.6911722411</v>
+        <v>40513.6954184990</v>
       </c>
       <c r="B18" s="1">
-        <v>37.000000</v>
+        <v>58.000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40513.6911838151</v>
+        <v>40513.6954300731</v>
       </c>
       <c r="B19" s="1">
-        <v>42.000000</v>
+        <v>55.000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40513.6911953892</v>
+        <v>40513.6954416471</v>
       </c>
       <c r="B20" s="1">
-        <v>52.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40513.6912069633</v>
+        <v>40513.6954532212</v>
       </c>
       <c r="B21" s="1">
-        <v>39.000000</v>
+        <v>72.000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40513.6912185374</v>
+        <v>40513.6954647953</v>
       </c>
       <c r="B22" s="1">
-        <v>35.000000</v>
+        <v>49.000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40513.6912301114</v>
+        <v>40513.6954763693</v>
       </c>
       <c r="B23" s="1">
-        <v>29.000000</v>
+        <v>50.000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40513.6912416855</v>
+        <v>40513.6954879434</v>
       </c>
       <c r="B24" s="1">
-        <v>39.000000</v>
+        <v>50.000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40513.6912532596</v>
+        <v>40513.6954995175</v>
       </c>
       <c r="B25" s="1">
-        <v>45.000000</v>
+        <v>51.000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40513.6912648337</v>
+        <v>40513.6955110916</v>
       </c>
       <c r="B26" s="1">
-        <v>46.000000</v>
+        <v>59.000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40513.6912764077</v>
+        <v>40513.6955226656</v>
       </c>
       <c r="B27" s="1">
-        <v>50.000000</v>
+        <v>59.000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40513.6912879818</v>
+        <v>40513.6955342397</v>
       </c>
       <c r="B28" s="1">
-        <v>48.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40513.6912995559</v>
+        <v>40513.6955458138</v>
       </c>
       <c r="B29" s="1">
-        <v>45.000000</v>
+        <v>37.000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>40513.6913111299</v>
+        <v>40513.6955573879</v>
       </c>
       <c r="B30" s="1">
-        <v>36.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>40513.6913227040</v>
+        <v>40513.6955689619</v>
       </c>
       <c r="B31" s="1">
-        <v>42.000000</v>
+        <v>51.000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>40513.6913342781</v>
+        <v>40513.6955805360</v>
       </c>
       <c r="B32" s="1">
-        <v>47.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>40513.6913458522</v>
+        <v>40513.6955921101</v>
       </c>
       <c r="B33" s="1">
-        <v>44.000000</v>
+        <v>48.000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>40513.6913574262</v>
+        <v>40513.6956036842</v>
       </c>
       <c r="B34" s="1">
-        <v>42.000000</v>
+        <v>58.000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>40513.6913690003</v>
+        <v>40513.6956152582</v>
       </c>
       <c r="B35" s="1">
-        <v>43.000000</v>
+        <v>59.000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>40513.6913805744</v>
+        <v>40513.6956268323</v>
       </c>
       <c r="B36" s="1">
-        <v>42.000000</v>
+        <v>70.000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>40513.6913921485</v>
+        <v>40513.6956384064</v>
       </c>
       <c r="B37" s="1">
-        <v>39.000000</v>
+        <v>55.000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>40513.6914037225</v>
+        <v>40513.6956499805</v>
       </c>
       <c r="B38" s="1">
-        <v>56.000000</v>
+        <v>58.000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>40513.6914152966</v>
+        <v>40513.6956615545</v>
       </c>
       <c r="B39" s="1">
-        <v>60.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>40513.6914268707</v>
+        <v>40513.6956731286</v>
       </c>
       <c r="B40" s="1">
-        <v>44.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>40513.6914384448</v>
+        <v>40513.6956847027</v>
       </c>
       <c r="B41" s="1">
-        <v>55.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>40513.6914500188</v>
+        <v>40513.6956962768</v>
       </c>
       <c r="B42" s="1">
-        <v>39.000000</v>
+        <v>43.000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>40513.6914615929</v>
+        <v>40513.6957078508</v>
       </c>
       <c r="B43" s="1">
-        <v>33.000000</v>
+        <v>51.000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>40513.6914731670</v>
+        <v>40513.6957194249</v>
       </c>
       <c r="B44" s="1">
-        <v>40.000000</v>
+        <v>49.000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>40513.6914847411</v>
+        <v>40513.6957309990</v>
       </c>
       <c r="B45" s="1">
-        <v>34.000000</v>
+        <v>50.000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>40513.6914963151</v>
+        <v>40513.6957425731</v>
       </c>
       <c r="B46" s="1">
-        <v>41.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>40513.6915078892</v>
+        <v>40513.6957541471</v>
       </c>
       <c r="B47" s="1">
-        <v>38.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>40513.6915194633</v>
+        <v>40513.6957657212</v>
       </c>
       <c r="B48" s="1">
-        <v>49.000000</v>
+        <v>50.000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>40513.6915310374</v>
+        <v>40513.6957772953</v>
       </c>
       <c r="B49" s="1">
-        <v>47.000000</v>
+        <v>46.000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>40513.6915426114</v>
+        <v>40513.6957888693</v>
       </c>
       <c r="B50" s="1">
-        <v>33.000000</v>
+        <v>51.000000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>40513.6915541855</v>
+        <v>40513.6958004434</v>
       </c>
       <c r="B51" s="1">
-        <v>27.000000</v>
+        <v>41.000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>40513.6915657596</v>
+        <v>40513.6958120175</v>
       </c>
       <c r="B52" s="1">
-        <v>41.000000</v>
+        <v>51.000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>40513.6915773337</v>
+        <v>40513.6958235916</v>
       </c>
       <c r="B53" s="1">
-        <v>34.000000</v>
+        <v>55.000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>40513.6915889077</v>
+        <v>40513.6958351656</v>
       </c>
       <c r="B54" s="1">
-        <v>41.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>40513.6916004818</v>
+        <v>40513.6958467397</v>
       </c>
       <c r="B55" s="1">
-        <v>48.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>40513.6916120559</v>
+        <v>40513.6958583138</v>
       </c>
       <c r="B56" s="1">
-        <v>30.000000</v>
+        <v>34.000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>40513.6916236299</v>
+        <v>40513.6958698879</v>
       </c>
       <c r="B57" s="1">
-        <v>32.000000</v>
+        <v>47.000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>40513.6916352040</v>
+        <v>40513.6958814619</v>
       </c>
       <c r="B58" s="1">
-        <v>32.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>40513.6916467781</v>
+        <v>40513.6958930360</v>
       </c>
       <c r="B59" s="1">
-        <v>38.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>40513.6916583522</v>
+        <v>40513.6959046101</v>
       </c>
       <c r="B60" s="1">
-        <v>43.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>40513.6916699262</v>
+        <v>40513.6959161842</v>
       </c>
       <c r="B61" s="1">
-        <v>45.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>40513.6916815003</v>
+        <v>40513.6959277582</v>
       </c>
       <c r="B62" s="1">
         <v>46.000000</v>
@@ -553,167 +553,167 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>40513.6916930744</v>
+        <v>40513.6959393323</v>
       </c>
       <c r="B63" s="1">
-        <v>27.000000</v>
+        <v>49.000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>40513.6917046485</v>
+        <v>40513.6959509064</v>
       </c>
       <c r="B64" s="1">
-        <v>33.000000</v>
+        <v>56.000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>40513.6917162225</v>
+        <v>40513.6959624805</v>
       </c>
       <c r="B65" s="1">
-        <v>39.000000</v>
+        <v>46.000000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>40513.6917277966</v>
+        <v>40513.6959740545</v>
       </c>
       <c r="B66" s="1">
-        <v>40.000000</v>
+        <v>50.000000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>40513.6917393707</v>
+        <v>40513.6959856286</v>
       </c>
       <c r="B67" s="1">
-        <v>29.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>40513.6917509448</v>
+        <v>40513.6959972027</v>
       </c>
       <c r="B68" s="1">
-        <v>29.000000</v>
+        <v>42.000000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>40513.6917625188</v>
+        <v>40513.6960087768</v>
       </c>
       <c r="B69" s="1">
-        <v>40.000000</v>
+        <v>43.000000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>40513.6917740929</v>
+        <v>40513.6960203508</v>
       </c>
       <c r="B70" s="1">
-        <v>36.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>40513.6917856670</v>
+        <v>40513.6960319249</v>
       </c>
       <c r="B71" s="1">
-        <v>37.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>40513.6917972411</v>
+        <v>40513.6960434990</v>
       </c>
       <c r="B72" s="1">
-        <v>26.000000</v>
+        <v>58.000000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>40513.6918088151</v>
+        <v>40513.6960550731</v>
       </c>
       <c r="B73" s="1">
-        <v>38.000000</v>
+        <v>53.000000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>40513.6918203892</v>
+        <v>40513.6960666471</v>
       </c>
       <c r="B74" s="1">
-        <v>39.000000</v>
+        <v>47.000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>40513.6918319633</v>
+        <v>40513.6960782212</v>
       </c>
       <c r="B75" s="1">
-        <v>40.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>40513.6918435374</v>
+        <v>40513.6960897953</v>
       </c>
       <c r="B76" s="1">
-        <v>37.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>40513.6918551114</v>
+        <v>40513.6961013693</v>
       </c>
       <c r="B77" s="1">
-        <v>48.000000</v>
+        <v>40.000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>40513.6918666855</v>
+        <v>40513.6961129434</v>
       </c>
       <c r="B78" s="1">
-        <v>29.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>40513.6918782596</v>
+        <v>40513.6961245175</v>
       </c>
       <c r="B79" s="1">
-        <v>34.000000</v>
+        <v>48.000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>40513.6918898336</v>
+        <v>40513.6961360916</v>
       </c>
       <c r="B80" s="1">
-        <v>18.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>40513.6919014077</v>
+        <v>40513.6961476656</v>
       </c>
       <c r="B81" s="1">
-        <v>35.000000</v>
+        <v>55.000000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>40513.6919129818</v>
+        <v>40513.6961592397</v>
       </c>
       <c r="B82" s="1">
-        <v>35.000000</v>
+        <v>52.000000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>40513.6919245559</v>
+        <v>40513.6961708138</v>
       </c>
       <c r="B83" s="1">
         <v>42.000000</v>
@@ -721,71 +721,71 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>40513.6919361299</v>
+        <v>40513.6961823879</v>
       </c>
       <c r="B84" s="1">
-        <v>20.000000</v>
+        <v>37.000000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>40513.6919477040</v>
+        <v>40513.6961939619</v>
       </c>
       <c r="B85" s="1">
-        <v>37.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>40513.6919592781</v>
+        <v>40513.6962055360</v>
       </c>
       <c r="B86" s="1">
-        <v>38.000000</v>
+        <v>33.000000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>40513.6919708522</v>
+        <v>40513.6962171101</v>
       </c>
       <c r="B87" s="1">
-        <v>30.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>40513.6919824262</v>
+        <v>40513.6962286842</v>
       </c>
       <c r="B88" s="1">
-        <v>27.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>40513.6919940003</v>
+        <v>40513.6962402582</v>
       </c>
       <c r="B89" s="1">
-        <v>28.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>40513.6920055744</v>
+        <v>40513.6962518323</v>
       </c>
       <c r="B90" s="1">
-        <v>24.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>40513.6920171485</v>
+        <v>40513.6962634064</v>
       </c>
       <c r="B91" s="1">
-        <v>29.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>40513.6920287225</v>
+        <v>40513.6962749805</v>
       </c>
       <c r="B92" s="1">
         <v>40.000000</v>
@@ -793,23 +793,23 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>40513.6920402966</v>
+        <v>40513.6962865545</v>
       </c>
       <c r="B93" s="1">
-        <v>35.000000</v>
+        <v>42.000000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>40513.6920518707</v>
+        <v>40513.6962981286</v>
       </c>
       <c r="B94" s="1">
-        <v>26.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>40513.6920634448</v>
+        <v>40513.6963097027</v>
       </c>
       <c r="B95" s="1">
         <v>32.000000</v>
@@ -817,55 +817,55 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>40513.6920750188</v>
+        <v>40513.6963212768</v>
       </c>
       <c r="B96" s="1">
-        <v>32.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>40513.6920865929</v>
+        <v>40513.6963328508</v>
       </c>
       <c r="B97" s="1">
-        <v>34.000000</v>
+        <v>44.000000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>40513.6920981670</v>
+        <v>40513.6963444249</v>
       </c>
       <c r="B98" s="1">
-        <v>33.000000</v>
+        <v>37.000000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>40513.6921097411</v>
+        <v>40513.6963559990</v>
       </c>
       <c r="B99" s="1">
-        <v>36.000000</v>
+        <v>45.000000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>40513.6921213151</v>
+        <v>40513.6963675731</v>
       </c>
       <c r="B100" s="1">
-        <v>27.000000</v>
+        <v>41.000000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>40513.6921328892</v>
+        <v>40513.6963791471</v>
       </c>
       <c r="B101" s="1">
-        <v>38.000000</v>
+        <v>31.000000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>40513.6921444633</v>
+        <v>40513.6963907212</v>
       </c>
       <c r="B102" s="1">
         <v>25.000000</v>
@@ -873,111 +873,111 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>40513.6921560374</v>
+        <v>40513.6964022953</v>
       </c>
       <c r="B103" s="1">
-        <v>24.000000</v>
+        <v>47.000000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>40513.6921676114</v>
+        <v>40513.6964138693</v>
       </c>
       <c r="B104" s="1">
-        <v>28.000000</v>
+        <v>33.000000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>40513.6921791855</v>
+        <v>40513.6964254434</v>
       </c>
       <c r="B105" s="1">
-        <v>25.000000</v>
+        <v>43.000000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>40513.6921907596</v>
+        <v>40513.6964370175</v>
       </c>
       <c r="B106" s="1">
-        <v>43.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>40513.6922023336</v>
+        <v>40513.6964485916</v>
       </c>
       <c r="B107" s="1">
-        <v>32.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>40513.6922139077</v>
+        <v>40513.6964601656</v>
       </c>
       <c r="B108" s="1">
-        <v>24.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>40513.6922254818</v>
+        <v>40513.6964717397</v>
       </c>
       <c r="B109" s="1">
-        <v>44.000000</v>
+        <v>43.000000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>40513.6922370559</v>
+        <v>40513.6964833138</v>
       </c>
       <c r="B110" s="1">
-        <v>38.000000</v>
+        <v>34.000000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>40513.6922486299</v>
+        <v>40513.6964948879</v>
       </c>
       <c r="B111" s="1">
-        <v>27.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>40513.6922602040</v>
+        <v>40513.6965064619</v>
       </c>
       <c r="B112" s="1">
-        <v>30.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>40513.6922717781</v>
+        <v>40513.6965180360</v>
       </c>
       <c r="B113" s="1">
-        <v>26.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>40513.6922833522</v>
+        <v>40513.6965296101</v>
       </c>
       <c r="B114" s="1">
-        <v>33.000000</v>
+        <v>41.000000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>40513.6922949262</v>
+        <v>40513.6965411842</v>
       </c>
       <c r="B115" s="1">
-        <v>29.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>40513.6923065003</v>
+        <v>40513.6965527582</v>
       </c>
       <c r="B116" s="1">
         <v>35.000000</v>
@@ -985,95 +985,95 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>40513.6923180744</v>
+        <v>40513.6965643323</v>
       </c>
       <c r="B117" s="1">
-        <v>33.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>40513.6923296485</v>
+        <v>40513.6965759064</v>
       </c>
       <c r="B118" s="1">
-        <v>26.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>40513.6923412225</v>
+        <v>40513.6965874805</v>
       </c>
       <c r="B119" s="1">
-        <v>28.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>40513.6923527966</v>
+        <v>40513.6965990545</v>
       </c>
       <c r="B120" s="1">
-        <v>26.000000</v>
+        <v>37.000000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>40513.6923643707</v>
+        <v>40513.6966106286</v>
       </c>
       <c r="B121" s="1">
-        <v>26.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>40513.6923759448</v>
+        <v>40513.6966222027</v>
       </c>
       <c r="B122" s="1">
-        <v>35.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>40513.6923875188</v>
+        <v>40513.6966337768</v>
       </c>
       <c r="B123" s="1">
-        <v>28.000000</v>
+        <v>37.000000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>40513.6923990929</v>
+        <v>40513.6966453508</v>
       </c>
       <c r="B124" s="1">
-        <v>28.000000</v>
+        <v>34.000000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>40513.6924106670</v>
+        <v>40513.6966569249</v>
       </c>
       <c r="B125" s="1">
-        <v>27.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>40513.6924222411</v>
+        <v>40513.6966684990</v>
       </c>
       <c r="B126" s="1">
-        <v>30.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>40513.6924338151</v>
+        <v>40513.6966800731</v>
       </c>
       <c r="B127" s="1">
-        <v>26.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>40513.6924453892</v>
+        <v>40513.6966916471</v>
       </c>
       <c r="B128" s="1">
         <v>24.000000</v>
@@ -1081,23 +1081,23 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>40513.6924569633</v>
+        <v>40513.6967032212</v>
       </c>
       <c r="B129" s="1">
-        <v>29.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>40513.6924685374</v>
+        <v>40513.6967147953</v>
       </c>
       <c r="B130" s="1">
-        <v>25.000000</v>
+        <v>42.000000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>40513.6924801114</v>
+        <v>40513.6967263693</v>
       </c>
       <c r="B131" s="1">
         <v>30.000000</v>
@@ -1105,231 +1105,231 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>40513.6924916855</v>
+        <v>40513.6967379434</v>
       </c>
       <c r="B132" s="1">
-        <v>25.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>40513.6925032596</v>
+        <v>40513.6967495175</v>
       </c>
       <c r="B133" s="1">
-        <v>27.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>40513.6925148336</v>
+        <v>40513.6967610916</v>
       </c>
       <c r="B134" s="1">
-        <v>32.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>40513.6925264077</v>
+        <v>40513.6967726656</v>
       </c>
       <c r="B135" s="1">
-        <v>27.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>40513.6925379818</v>
+        <v>40513.6967842397</v>
       </c>
       <c r="B136" s="1">
-        <v>28.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>40513.6925495559</v>
+        <v>40513.6967958138</v>
       </c>
       <c r="B137" s="1">
-        <v>34.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>40513.6925611299</v>
+        <v>40513.6968073879</v>
       </c>
       <c r="B138" s="1">
-        <v>16.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>40513.6925727040</v>
+        <v>40513.6968189619</v>
       </c>
       <c r="B139" s="1">
-        <v>26.000000</v>
+        <v>29.000000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>40513.6925842781</v>
+        <v>40513.6968305360</v>
       </c>
       <c r="B140" s="1">
-        <v>17.000000</v>
+        <v>31.000000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>40513.6925958522</v>
+        <v>40513.6968421101</v>
       </c>
       <c r="B141" s="1">
-        <v>28.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>40513.6926074262</v>
+        <v>40513.6968536842</v>
       </c>
       <c r="B142" s="1">
-        <v>31.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>40513.6926190003</v>
+        <v>40513.6968652582</v>
       </c>
       <c r="B143" s="1">
-        <v>27.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>40513.6926305744</v>
+        <v>40513.6968768323</v>
       </c>
       <c r="B144" s="1">
-        <v>29.000000</v>
+        <v>40.000000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>40513.6926421485</v>
+        <v>40513.6968884064</v>
       </c>
       <c r="B145" s="1">
-        <v>31.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>40513.6926537225</v>
+        <v>40513.6968999805</v>
       </c>
       <c r="B146" s="1">
-        <v>31.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>40513.6926652966</v>
+        <v>40513.6969115545</v>
       </c>
       <c r="B147" s="1">
-        <v>33.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>40513.6926768707</v>
+        <v>40513.6969231286</v>
       </c>
       <c r="B148" s="1">
-        <v>23.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>40513.6926884448</v>
+        <v>40513.6969347027</v>
       </c>
       <c r="B149" s="1">
-        <v>25.000000</v>
+        <v>38.000000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>40513.6927000188</v>
+        <v>40513.6969462768</v>
       </c>
       <c r="B150" s="1">
-        <v>22.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>40513.6927115929</v>
+        <v>40513.6969578508</v>
       </c>
       <c r="B151" s="1">
-        <v>23.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>40513.6927231670</v>
+        <v>40513.6969694249</v>
       </c>
       <c r="B152" s="1">
-        <v>27.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>40513.6927347411</v>
+        <v>40513.6969809990</v>
       </c>
       <c r="B153" s="1">
-        <v>27.000000</v>
+        <v>29.000000</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>40513.6927463151</v>
+        <v>40513.6969925731</v>
       </c>
       <c r="B154" s="1">
-        <v>22.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>40513.6927578892</v>
+        <v>40513.6970041471</v>
       </c>
       <c r="B155" s="1">
-        <v>25.000000</v>
+        <v>40.000000</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>40513.6927694633</v>
+        <v>40513.6970157212</v>
       </c>
       <c r="B156" s="1">
-        <v>21.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>40513.6927810374</v>
+        <v>40513.6970272953</v>
       </c>
       <c r="B157" s="1">
-        <v>32.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>40513.6927926114</v>
+        <v>40513.6970388693</v>
       </c>
       <c r="B158" s="1">
-        <v>30.000000</v>
+        <v>43.000000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>40513.6928041855</v>
+        <v>40513.6970504434</v>
       </c>
       <c r="B159" s="1">
-        <v>13.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>40513.6928157596</v>
+        <v>40513.6970620175</v>
       </c>
       <c r="B160" s="1">
         <v>27.000000</v>
@@ -1337,255 +1337,255 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>40513.6928273336</v>
+        <v>40513.6970735916</v>
       </c>
       <c r="B161" s="1">
-        <v>31.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>40513.6928389077</v>
+        <v>40513.6970851656</v>
       </c>
       <c r="B162" s="1">
-        <v>31.000000</v>
+        <v>29.000000</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>40513.6928504818</v>
+        <v>40513.6970967397</v>
       </c>
       <c r="B163" s="1">
-        <v>18.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>40513.6928620559</v>
+        <v>40513.6971083138</v>
       </c>
       <c r="B164" s="1">
-        <v>29.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>40513.6928736299</v>
+        <v>40513.6971198879</v>
       </c>
       <c r="B165" s="1">
-        <v>30.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>40513.6928852040</v>
+        <v>40513.6971314619</v>
       </c>
       <c r="B166" s="1">
-        <v>11.000000</v>
+        <v>19.000000</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>40513.6928967781</v>
+        <v>40513.6971430360</v>
       </c>
       <c r="B167" s="1">
-        <v>30.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>40513.6929083522</v>
+        <v>40513.6971546101</v>
       </c>
       <c r="B168" s="1">
-        <v>21.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>40513.6929199262</v>
+        <v>40513.6971661842</v>
       </c>
       <c r="B169" s="1">
-        <v>20.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>40513.6929315003</v>
+        <v>40513.6971777582</v>
       </c>
       <c r="B170" s="1">
-        <v>25.000000</v>
+        <v>20.000000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>40513.6929430744</v>
+        <v>40513.6971893323</v>
       </c>
       <c r="B171" s="1">
-        <v>23.000000</v>
+        <v>39.000000</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>40513.6929546485</v>
+        <v>40513.6972009064</v>
       </c>
       <c r="B172" s="1">
-        <v>24.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>40513.6929662225</v>
+        <v>40513.6972124805</v>
       </c>
       <c r="B173" s="1">
-        <v>24.000000</v>
+        <v>17.000000</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>40513.6929777966</v>
+        <v>40513.6972240545</v>
       </c>
       <c r="B174" s="1">
-        <v>17.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>40513.6929893707</v>
+        <v>40513.6972356286</v>
       </c>
       <c r="B175" s="1">
-        <v>20.000000</v>
+        <v>21.000000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>40513.6930009448</v>
+        <v>40513.6972472027</v>
       </c>
       <c r="B176" s="1">
-        <v>19.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>40513.6930125188</v>
+        <v>40513.6972587768</v>
       </c>
       <c r="B177" s="1">
-        <v>19.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>40513.6930240929</v>
+        <v>40513.6972703508</v>
       </c>
       <c r="B178" s="1">
-        <v>18.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>40513.6930356670</v>
+        <v>40513.6972819249</v>
       </c>
       <c r="B179" s="1">
-        <v>27.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>40513.6930472411</v>
+        <v>40513.6972934990</v>
       </c>
       <c r="B180" s="1">
-        <v>20.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>40513.6930588151</v>
+        <v>40513.6973050730</v>
       </c>
       <c r="B181" s="1">
-        <v>25.000000</v>
+        <v>14.000000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>40513.6930703892</v>
+        <v>40513.6973166471</v>
       </c>
       <c r="B182" s="1">
-        <v>18.000000</v>
+        <v>35.000000</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>40513.6930819633</v>
+        <v>40513.6973282212</v>
       </c>
       <c r="B183" s="1">
-        <v>23.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>40513.6930935374</v>
+        <v>40513.6973397953</v>
       </c>
       <c r="B184" s="1">
-        <v>16.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>40513.6931051114</v>
+        <v>40513.6973513693</v>
       </c>
       <c r="B185" s="1">
-        <v>20.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>40513.6931166855</v>
+        <v>40513.6973629434</v>
       </c>
       <c r="B186" s="1">
-        <v>21.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>40513.6931282596</v>
+        <v>40513.6973745175</v>
       </c>
       <c r="B187" s="1">
-        <v>23.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>40513.6931398336</v>
+        <v>40513.6973860916</v>
       </c>
       <c r="B188" s="1">
-        <v>21.000000</v>
+        <v>32.000000</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>40513.6931514077</v>
+        <v>40513.6973976656</v>
       </c>
       <c r="B189" s="1">
-        <v>14.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>40513.6931629818</v>
+        <v>40513.6974092397</v>
       </c>
       <c r="B190" s="1">
-        <v>22.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>40513.6931745559</v>
+        <v>40513.6974208138</v>
       </c>
       <c r="B191" s="1">
-        <v>20.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>40513.6931861299</v>
+        <v>40513.6974323879</v>
       </c>
       <c r="B192" s="1">
         <v>18.000000</v>
@@ -1593,159 +1593,159 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>40513.6931977040</v>
+        <v>40513.6974439619</v>
       </c>
       <c r="B193" s="1">
-        <v>24.000000</v>
+        <v>18.000000</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>40513.6932092781</v>
+        <v>40513.6974555360</v>
       </c>
       <c r="B194" s="1">
-        <v>21.000000</v>
+        <v>16.000000</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>40513.6932208522</v>
+        <v>40513.6974671101</v>
       </c>
       <c r="B195" s="1">
-        <v>13.000000</v>
+        <v>21.000000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>40513.6932324262</v>
+        <v>40513.6974786842</v>
       </c>
       <c r="B196" s="1">
-        <v>24.000000</v>
+        <v>31.000000</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>40513.6932440003</v>
+        <v>40513.6974902582</v>
       </c>
       <c r="B197" s="1">
-        <v>27.000000</v>
+        <v>19.000000</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>40513.6932555744</v>
+        <v>40513.6975018323</v>
       </c>
       <c r="B198" s="1">
-        <v>29.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>40513.6932671485</v>
+        <v>40513.6975134064</v>
       </c>
       <c r="B199" s="1">
-        <v>16.000000</v>
+        <v>19.000000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>40513.6932787225</v>
+        <v>40513.6975249805</v>
       </c>
       <c r="B200" s="1">
-        <v>15.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>40513.6932902966</v>
+        <v>40513.6975365545</v>
       </c>
       <c r="B201" s="1">
-        <v>18.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>40513.6933018707</v>
+        <v>40513.6975481286</v>
       </c>
       <c r="B202" s="1">
-        <v>12.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>40513.6933134448</v>
+        <v>40513.6975597027</v>
       </c>
       <c r="B203" s="1">
-        <v>22.000000</v>
+        <v>33.000000</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>40513.6933250188</v>
+        <v>40513.6975712768</v>
       </c>
       <c r="B204" s="1">
-        <v>26.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>40513.6933365929</v>
+        <v>40513.6975828508</v>
       </c>
       <c r="B205" s="1">
-        <v>25.000000</v>
+        <v>26.000000</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>40513.6933481670</v>
+        <v>40513.6975944249</v>
       </c>
       <c r="B206" s="1">
-        <v>23.000000</v>
+        <v>33.000000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>40513.6933597411</v>
+        <v>40513.6976059990</v>
       </c>
       <c r="B207" s="1">
-        <v>18.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>40513.6933713151</v>
+        <v>40513.6976175730</v>
       </c>
       <c r="B208" s="1">
-        <v>14.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>40513.6933828892</v>
+        <v>40513.6976291471</v>
       </c>
       <c r="B209" s="1">
-        <v>21.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>40513.6933944633</v>
+        <v>40513.6976407212</v>
       </c>
       <c r="B210" s="1">
-        <v>32.000000</v>
+        <v>21.000000</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>40513.6934060374</v>
+        <v>40513.6976522953</v>
       </c>
       <c r="B211" s="1">
-        <v>24.000000</v>
+        <v>26.000000</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>40513.6934176114</v>
+        <v>40513.6976638693</v>
       </c>
       <c r="B212" s="1">
         <v>26.000000</v>
@@ -1753,23 +1753,23 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>40513.6934291855</v>
+        <v>40513.6976754434</v>
       </c>
       <c r="B213" s="1">
-        <v>16.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>40513.6934407596</v>
+        <v>40513.6976870175</v>
       </c>
       <c r="B214" s="1">
-        <v>22.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>40513.6934523336</v>
+        <v>40513.6976985916</v>
       </c>
       <c r="B215" s="1">
         <v>19.000000</v>
@@ -1777,15 +1777,15 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>40513.6934639077</v>
+        <v>40513.6977101656</v>
       </c>
       <c r="B216" s="1">
-        <v>15.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>40513.6934754818</v>
+        <v>40513.6977217397</v>
       </c>
       <c r="B217" s="1">
         <v>23.000000</v>
@@ -1793,15 +1793,15 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>40513.6934870559</v>
+        <v>40513.6977333138</v>
       </c>
       <c r="B218" s="1">
-        <v>15.000000</v>
+        <v>17.000000</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>40513.6934986299</v>
+        <v>40513.6977448879</v>
       </c>
       <c r="B219" s="1">
         <v>17.000000</v>
@@ -1809,47 +1809,47 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>40513.6935102040</v>
+        <v>40513.6977564619</v>
       </c>
       <c r="B220" s="1">
-        <v>15.000000</v>
+        <v>26.000000</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>40513.6935217781</v>
+        <v>40513.6977680360</v>
       </c>
       <c r="B221" s="1">
-        <v>20.000000</v>
+        <v>18.000000</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>40513.6935333522</v>
+        <v>40513.6977796101</v>
       </c>
       <c r="B222" s="1">
-        <v>18.000000</v>
+        <v>33.000000</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>40513.6935449262</v>
+        <v>40513.6977911842</v>
       </c>
       <c r="B223" s="1">
-        <v>18.000000</v>
+        <v>25.000000</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>40513.6935565003</v>
+        <v>40513.6978027582</v>
       </c>
       <c r="B224" s="1">
-        <v>23.000000</v>
+        <v>21.000000</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>40513.6935680744</v>
+        <v>40513.6978143323</v>
       </c>
       <c r="B225" s="1">
         <v>24.000000</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>40513.6935796485</v>
+        <v>40513.6978259064</v>
       </c>
       <c r="B226" s="1">
         <v>16.000000</v>
@@ -1865,87 +1865,87 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>40513.6935912225</v>
+        <v>40513.6978374805</v>
       </c>
       <c r="B227" s="1">
-        <v>31.000000</v>
+        <v>19.000000</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>40513.6936027966</v>
+        <v>40513.6978490545</v>
       </c>
       <c r="B228" s="1">
-        <v>22.000000</v>
+        <v>24.000000</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>40513.6936143707</v>
+        <v>40513.6978606286</v>
       </c>
       <c r="B229" s="1">
-        <v>17.000000</v>
+        <v>28.000000</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>40513.6936259448</v>
+        <v>40513.6978722027</v>
       </c>
       <c r="B230" s="1">
-        <v>22.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>40513.6936375188</v>
+        <v>40513.6978837768</v>
       </c>
       <c r="B231" s="1">
-        <v>23.000000</v>
+        <v>20.000000</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>40513.6936490929</v>
+        <v>40513.6978953508</v>
       </c>
       <c r="B232" s="1">
-        <v>12.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>40513.6936606670</v>
+        <v>40513.6979069249</v>
       </c>
       <c r="B233" s="1">
-        <v>18.000000</v>
+        <v>27.000000</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>40513.6936722411</v>
+        <v>40513.6979184990</v>
       </c>
       <c r="B234" s="1">
-        <v>16.000000</v>
+        <v>30.000000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>40513.6936838151</v>
+        <v>40513.6979300730</v>
       </c>
       <c r="B235" s="1">
-        <v>16.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>40513.6936953892</v>
+        <v>40513.6979416471</v>
       </c>
       <c r="B236" s="1">
-        <v>23.000000</v>
+        <v>21.000000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>40513.6937069633</v>
+        <v>40513.6979532212</v>
       </c>
       <c r="B237" s="1">
         <v>15.000000</v>
@@ -1953,34 +1953,34 @@
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>40513.6937185374</v>
+        <v>40513.6979647953</v>
       </c>
       <c r="B238" s="1">
-        <v>21.000000</v>
+        <v>23.000000</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>40513.6937301114</v>
+        <v>40513.6979763693</v>
       </c>
       <c r="B239" s="1">
-        <v>18.000000</v>
+        <v>21.000000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>40513.6937416855</v>
+        <v>40513.6979879434</v>
       </c>
       <c r="B240" s="1">
-        <v>21.000000</v>
+        <v>19.000000</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>40513.6937532596</v>
+        <v>40513.6979995175</v>
       </c>
       <c r="B241" s="1">
-        <v>11.000000</v>
+        <v>22.000000</v>
       </c>
     </row>
   </sheetData>
